--- a/OPXfinansAGA.xlsx
+++ b/OPXfinansAGA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gusia\Desktop\HACKATHON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gusia\Desktop\HACKATHON\ISSSV1337\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC50D52F-1FAB-4B21-BDFA-C14636D6AB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAB1DAE-2BC4-4D7D-8078-27DEBA237B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FF0D3A43-FCC6-2A45-ABA7-E28E53F8BFCB}"/>
+    <workbookView xWindow="3360" yWindow="2210" windowWidth="14400" windowHeight="7270" xr2:uid="{FF0D3A43-FCC6-2A45-ABA7-E28E53F8BFCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Revenue</t>
   </si>
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t>Other expenses</t>
+  </si>
+  <si>
+    <t>Org. No</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Kreftforeningen</t>
   </si>
 </sst>
 </file>
@@ -221,9 +233,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -547,308 +558,329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4398725B-D69D-D049-948F-F8EF3607B61D}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B5" s="3">
         <v>462196</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B6" s="3">
         <v>29148</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B7" s="3">
         <v>4806</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B8" s="3">
         <v>25087</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B9" s="3">
         <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
-        <v>81052</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="4">
-        <v>2563</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2">
-        <f>SUM(B3:B9)</f>
-        <v>604852</v>
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
+        <v>81052</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <f>SUM(B5:B11)</f>
+        <v>604852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B14" s="3">
         <v>434431</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B15" s="3">
         <v>10528</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4">
-        <v>93587</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2">
-        <f>SUM(B12:B15)</f>
-        <v>538546</v>
+        <v>11</v>
+      </c>
+      <c r="B16" s="3">
+        <v>93587</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1">
+        <f>SUM(B14:B17)</f>
+        <v>538546</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B20" s="6">
         <v>15691</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B21" s="6">
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B22" s="6">
         <v>5630</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="7">
-        <f>SUM(B18:B21)</f>
-        <v>21506</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="6">
+        <f>SUM(B20:B23)</f>
+        <v>21506</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B26" s="6">
         <v>271319</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B27" s="6">
         <v>48408</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B28" s="6">
         <v>1218102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="7">
-        <f>SUM(B23:B26)</f>
-        <v>1537829</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="8">
-        <f>SUM(B22,B27)</f>
-        <v>1559335</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="7">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="B29" s="6">
+        <f>SUM(B25:B28)</f>
+        <v>1537829</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7">
+        <f>SUM(B24,B29)</f>
+        <v>1559335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B32" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B33" s="6">
         <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="7">
-        <v>316935</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="7">
-        <v>301821</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="6">
+        <v>316935</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="6">
+        <v>301821</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B36" s="6">
         <v>9740</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="7">
-        <f>SUM(B33:B34)</f>
+      <c r="B37" s="6">
+        <f>SUM(B35:B36)</f>
         <v>311561</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="8">
-        <f>SUM(B32,B35)</f>
+      <c r="B38" s="7">
+        <f>SUM(B34,B37)</f>
         <v>628496</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="8">
-        <f>B28-B36</f>
+      <c r="B39" s="7">
+        <f>B30-B38</f>
         <v>930839</v>
       </c>
     </row>

--- a/OPXfinansAGA.xlsx
+++ b/OPXfinansAGA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gusia\Desktop\HACKATHON\ISSSV1337\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAB1DAE-2BC4-4D7D-8078-27DEBA237B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49D918E-07D6-4EB7-982E-BF9E01D2D0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2210" windowWidth="14400" windowHeight="7270" xr2:uid="{FF0D3A43-FCC6-2A45-ABA7-E28E53F8BFCB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FF0D3A43-FCC6-2A45-ABA7-E28E53F8BFCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4398725B-D69D-D049-948F-F8EF3607B61D}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
